--- a/report/testResult.xlsx
+++ b/report/testResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="40">
   <si>
     <t>Execution No.</t>
   </si>
@@ -120,6 +120,18 @@
   </si>
   <si>
     <t>23:16:25</t>
+  </si>
+  <si>
+    <t>2025-04-06</t>
+  </si>
+  <si>
+    <t>11:11:46</t>
+  </si>
+  <si>
+    <t>11:11:47</t>
+  </si>
+  <si>
+    <t>11:11:48</t>
   </si>
 </sst>
 </file>
@@ -166,8 +178,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -239,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BM4"/>
+  <dimension ref="A1:BR5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -310,6 +327,11 @@
     <col min="63" max="63" bestFit="true" customWidth="true" width="5.9140625"/>
     <col min="64" max="64" bestFit="true" customWidth="true" width="10.13671875"/>
     <col min="65" max="65" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="66" max="66" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="67" max="67" bestFit="true" customWidth="true" width="9.21875"/>
+    <col min="68" max="68" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="69" max="69" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="70" max="70" bestFit="true" customWidth="true" width="7.98828125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -508,6 +530,21 @@
       <c r="BM1" t="s" s="65">
         <v>4</v>
       </c>
+      <c r="BN1" t="s" s="66">
+        <v>0</v>
+      </c>
+      <c r="BO1" t="s" s="67">
+        <v>1</v>
+      </c>
+      <c r="BP1" t="s" s="68">
+        <v>2</v>
+      </c>
+      <c r="BQ1" t="s" s="69">
+        <v>3</v>
+      </c>
+      <c r="BR1" t="s" s="70">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -705,6 +742,21 @@
       <c r="BM2" t="s" s="0">
         <v>33</v>
       </c>
+      <c r="BN2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BO2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="BP2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="BQ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BR2" t="s" s="0">
+        <v>37</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -827,6 +879,21 @@
       <c r="BM3" t="s" s="0">
         <v>34</v>
       </c>
+      <c r="BN3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BO3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="BP3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="BQ3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BR3" t="s" s="0">
+        <v>38</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -948,6 +1015,38 @@
       </c>
       <c r="BM4" t="s" s="0">
         <v>35</v>
+      </c>
+      <c r="BN4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BO4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="BP4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="BQ4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BR4" t="s" s="0">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="BN5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BO5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="BP5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="BQ5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BR5" t="s" s="0">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/report/testResult.xlsx
+++ b/report/testResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="134">
   <si>
     <t>Execution No.</t>
   </si>
@@ -132,6 +132,288 @@
   </si>
   <si>
     <t>11:11:48</t>
+  </si>
+  <si>
+    <t>11:21:21</t>
+  </si>
+  <si>
+    <t>11:21:22</t>
+  </si>
+  <si>
+    <t>11:21:23</t>
+  </si>
+  <si>
+    <t>verifyHostAndAdventure</t>
+  </si>
+  <si>
+    <t>13:55:19</t>
+  </si>
+  <si>
+    <t>14:01:30</t>
+  </si>
+  <si>
+    <t>14:07:03</t>
+  </si>
+  <si>
+    <t>14:08:53</t>
+  </si>
+  <si>
+    <t>14:21:19</t>
+  </si>
+  <si>
+    <t>14:23:03</t>
+  </si>
+  <si>
+    <t>14:32:08</t>
+  </si>
+  <si>
+    <t>14:41:41</t>
+  </si>
+  <si>
+    <t>14:50:30</t>
+  </si>
+  <si>
+    <t>14:52:20</t>
+  </si>
+  <si>
+    <t>14:53:32</t>
+  </si>
+  <si>
+    <t>15:09:42</t>
+  </si>
+  <si>
+    <t>15:11:30</t>
+  </si>
+  <si>
+    <t>15:12:37</t>
+  </si>
+  <si>
+    <t>15:15:24</t>
+  </si>
+  <si>
+    <t>15:17:55</t>
+  </si>
+  <si>
+    <t>15:20:30</t>
+  </si>
+  <si>
+    <t>15:23:00</t>
+  </si>
+  <si>
+    <t>15:24:00</t>
+  </si>
+  <si>
+    <t>15:24:38</t>
+  </si>
+  <si>
+    <t>15:27:54</t>
+  </si>
+  <si>
+    <t>15:31:29</t>
+  </si>
+  <si>
+    <t>15:49:28</t>
+  </si>
+  <si>
+    <t>15:59:26</t>
+  </si>
+  <si>
+    <t>16:02:26</t>
+  </si>
+  <si>
+    <t>16:05:06</t>
+  </si>
+  <si>
+    <t>16:45:58</t>
+  </si>
+  <si>
+    <t>UserRegistrationTest</t>
+  </si>
+  <si>
+    <t>18:43:39</t>
+  </si>
+  <si>
+    <t>18:44:27</t>
+  </si>
+  <si>
+    <t>UserLoginTest</t>
+  </si>
+  <si>
+    <t>18:47:18</t>
+  </si>
+  <si>
+    <t>18:55:42</t>
+  </si>
+  <si>
+    <t>19:40:52</t>
+  </si>
+  <si>
+    <t>19:48:36</t>
+  </si>
+  <si>
+    <t>19:54:04</t>
+  </si>
+  <si>
+    <t>20:01:15</t>
+  </si>
+  <si>
+    <t>20:31:33</t>
+  </si>
+  <si>
+    <t>20:39:35</t>
+  </si>
+  <si>
+    <t>20:46:16</t>
+  </si>
+  <si>
+    <t>20:54:07</t>
+  </si>
+  <si>
+    <t>20:59:13</t>
+  </si>
+  <si>
+    <t>21:03:03</t>
+  </si>
+  <si>
+    <t>21:05:44</t>
+  </si>
+  <si>
+    <t>21:09:13</t>
+  </si>
+  <si>
+    <t>21:51:05</t>
+  </si>
+  <si>
+    <t>21:52:58</t>
+  </si>
+  <si>
+    <t>21:54:44</t>
+  </si>
+  <si>
+    <t>21:58:54</t>
+  </si>
+  <si>
+    <t>22:01:11</t>
+  </si>
+  <si>
+    <t>22:12:56</t>
+  </si>
+  <si>
+    <t>22:15:02</t>
+  </si>
+  <si>
+    <t>22:17:58</t>
+  </si>
+  <si>
+    <t>22:29:19</t>
+  </si>
+  <si>
+    <t>22:31:42</t>
+  </si>
+  <si>
+    <t>22:43:03</t>
+  </si>
+  <si>
+    <t>22:45:18</t>
+  </si>
+  <si>
+    <t>23:01:42</t>
+  </si>
+  <si>
+    <t>23:03:33</t>
+  </si>
+  <si>
+    <t>23:04:48</t>
+  </si>
+  <si>
+    <t>23:07:11</t>
+  </si>
+  <si>
+    <t>23:21:13</t>
+  </si>
+  <si>
+    <t>23:22:44</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
+  </si>
+  <si>
+    <t>23:24:04</t>
+  </si>
+  <si>
+    <t>23:24:32</t>
+  </si>
+  <si>
+    <t>23:27:14</t>
+  </si>
+  <si>
+    <t>23:28:10</t>
+  </si>
+  <si>
+    <t>23:33:27</t>
+  </si>
+  <si>
+    <t>23:38:23</t>
+  </si>
+  <si>
+    <t>23:41:18</t>
+  </si>
+  <si>
+    <t>23:43:01</t>
+  </si>
+  <si>
+    <t>23:43:56</t>
+  </si>
+  <si>
+    <t>23:45:49</t>
+  </si>
+  <si>
+    <t>23:48:52</t>
+  </si>
+  <si>
+    <t>23:51:54</t>
+  </si>
+  <si>
+    <t>2025-04-07</t>
+  </si>
+  <si>
+    <t>00:12:27</t>
+  </si>
+  <si>
+    <t>00:14:43</t>
+  </si>
+  <si>
+    <t>00:30:22</t>
+  </si>
+  <si>
+    <t>01:16:26</t>
+  </si>
+  <si>
+    <t>01:30:36</t>
+  </si>
+  <si>
+    <t>01:31:36</t>
+  </si>
+  <si>
+    <t>01:33:14</t>
+  </si>
+  <si>
+    <t>01:35:55</t>
+  </si>
+  <si>
+    <t>01:36:53</t>
+  </si>
+  <si>
+    <t>01:37:53</t>
+  </si>
+  <si>
+    <t>01:39:53</t>
+  </si>
+  <si>
+    <t>01:39:57</t>
+  </si>
+  <si>
+    <t>01:40:58</t>
   </si>
 </sst>
 </file>
@@ -178,8 +460,448 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -256,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BR5"/>
+  <dimension ref="A1:SP5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -332,6 +1054,416 @@
     <col min="68" max="68" bestFit="true" customWidth="true" width="5.9140625"/>
     <col min="69" max="69" bestFit="true" customWidth="true" width="10.13671875"/>
     <col min="70" max="70" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="71" max="71" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="72" max="72" bestFit="true" customWidth="true" width="9.21875"/>
+    <col min="73" max="73" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="74" max="74" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="75" max="75" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="86" max="86" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="87" max="87" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="88" max="88" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="89" max="89" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="90" max="90" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="91" max="91" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="92" max="92" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="93" max="93" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="94" max="94" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="95" max="95" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="96" max="96" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="97" max="97" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="98" max="98" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="99" max="99" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="100" max="100" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="101" max="101" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="102" max="102" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="103" max="103" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="104" max="104" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="105" max="105" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="111" max="111" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="112" max="112" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="113" max="113" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="114" max="114" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="115" max="115" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="116" max="116" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="117" max="117" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="118" max="118" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="119" max="119" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="120" max="120" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="121" max="121" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="122" max="122" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="123" max="123" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="124" max="124" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="125" max="125" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="126" max="126" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="127" max="127" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="128" max="128" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="129" max="129" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="130" max="130" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="131" max="131" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="132" max="132" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="133" max="133" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="134" max="134" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="135" max="135" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="136" max="136" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="137" max="137" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="138" max="138" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="139" max="139" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="140" max="140" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="141" max="141" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="142" max="142" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="143" max="143" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="144" max="144" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="145" max="145" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="146" max="146" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="147" max="147" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="148" max="148" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="149" max="149" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="150" max="150" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="151" max="151" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="152" max="152" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="153" max="153" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="154" max="154" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="155" max="155" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="156" max="156" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="157" max="157" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="158" max="158" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="159" max="159" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="160" max="160" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="161" max="161" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="162" max="162" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="163" max="163" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="164" max="164" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="165" max="165" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="166" max="166" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="167" max="167" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="168" max="168" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="169" max="169" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="170" max="170" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="171" max="171" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="172" max="172" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="173" max="173" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="174" max="174" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="175" max="175" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="176" max="176" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="177" max="177" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="178" max="178" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="179" max="179" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="180" max="180" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="181" max="181" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="182" max="182" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="183" max="183" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="184" max="184" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="185" max="185" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="186" max="186" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="187" max="187" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="188" max="188" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="189" max="189" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="190" max="190" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="191" max="191" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="192" max="192" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="193" max="193" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="194" max="194" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="195" max="195" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="196" max="196" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="197" max="197" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="198" max="198" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="199" max="199" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="200" max="200" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="201" max="201" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="202" max="202" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="203" max="203" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="204" max="204" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="205" max="205" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="211" max="211" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="212" max="212" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="213" max="213" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="214" max="214" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="215" max="215" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="216" max="216" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="217" max="217" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="218" max="218" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="219" max="219" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="220" max="220" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="221" max="221" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="222" max="222" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="223" max="223" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="224" max="224" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="225" max="225" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="226" max="226" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="227" max="227" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="228" max="228" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="229" max="229" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="230" max="230" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="231" max="231" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="232" max="232" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="233" max="233" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="234" max="234" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="235" max="235" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="236" max="236" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="237" max="237" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="238" max="238" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="239" max="239" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="240" max="240" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="241" max="241" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="242" max="242" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="243" max="243" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="244" max="244" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="245" max="245" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="246" max="246" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="247" max="247" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="248" max="248" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="249" max="249" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="250" max="250" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="251" max="251" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="252" max="252" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="253" max="253" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="254" max="254" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="255" max="255" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="256" max="256" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="257" max="257" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="258" max="258" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="259" max="259" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="260" max="260" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="261" max="261" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="262" max="262" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="263" max="263" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="264" max="264" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="265" max="265" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="266" max="266" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="267" max="267" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="268" max="268" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="269" max="269" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="270" max="270" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="271" max="271" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="272" max="272" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="273" max="273" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="274" max="274" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="275" max="275" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="276" max="276" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="277" max="277" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="278" max="278" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="279" max="279" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="280" max="280" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="281" max="281" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="282" max="282" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="283" max="283" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="284" max="284" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="285" max="285" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="286" max="286" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="287" max="287" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="288" max="288" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="289" max="289" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="290" max="290" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="291" max="291" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="292" max="292" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="293" max="293" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="294" max="294" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="295" max="295" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="296" max="296" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="297" max="297" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="298" max="298" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="299" max="299" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="300" max="300" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="301" max="301" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="302" max="302" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="303" max="303" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="304" max="304" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="305" max="305" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="306" max="306" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="307" max="307" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="308" max="308" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="309" max="309" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="310" max="310" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="311" max="311" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="312" max="312" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="313" max="313" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="314" max="314" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="315" max="315" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="316" max="316" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="317" max="317" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="318" max="318" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="319" max="319" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="320" max="320" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="321" max="321" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="322" max="322" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="323" max="323" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="324" max="324" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="325" max="325" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="326" max="326" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="327" max="327" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="328" max="328" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="329" max="329" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="330" max="330" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="331" max="331" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="332" max="332" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="333" max="333" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="334" max="334" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="335" max="335" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="336" max="336" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="337" max="337" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="338" max="338" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="339" max="339" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="340" max="340" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="341" max="341" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="342" max="342" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="343" max="343" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="344" max="344" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="345" max="345" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="346" max="346" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="347" max="347" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="348" max="348" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="349" max="349" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="350" max="350" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="356" max="356" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="357" max="357" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="358" max="358" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="359" max="359" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="360" max="360" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="361" max="361" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="362" max="362" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="363" max="363" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="364" max="364" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="365" max="365" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="366" max="366" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="367" max="367" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="368" max="368" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="369" max="369" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="370" max="370" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="371" max="371" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="372" max="372" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="373" max="373" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="374" max="374" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="375" max="375" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="376" max="376" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="377" max="377" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="378" max="378" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="379" max="379" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="380" max="380" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="381" max="381" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="382" max="382" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="383" max="383" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="384" max="384" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="385" max="385" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="386" max="386" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="387" max="387" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="388" max="388" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="389" max="389" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="390" max="390" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="391" max="391" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="392" max="392" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="393" max="393" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="394" max="394" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="395" max="395" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="401" max="401" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="402" max="402" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="403" max="403" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="404" max="404" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="405" max="405" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="406" max="406" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="407" max="407" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="408" max="408" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="409" max="409" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="410" max="410" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="411" max="411" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="412" max="412" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="413" max="413" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="414" max="414" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="415" max="415" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="416" max="416" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="417" max="417" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="418" max="418" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="419" max="419" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="420" max="420" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="421" max="421" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="422" max="422" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="423" max="423" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="424" max="424" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="425" max="425" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="426" max="426" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="427" max="427" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="428" max="428" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="429" max="429" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="430" max="430" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="431" max="431" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="432" max="432" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="433" max="433" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="434" max="434" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="435" max="435" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="436" max="436" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="437" max="437" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="438" max="438" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="439" max="439" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="440" max="440" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="441" max="441" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="442" max="442" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="443" max="443" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="444" max="444" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="445" max="445" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="446" max="446" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="447" max="447" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="448" max="448" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="449" max="449" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="450" max="450" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="451" max="451" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="452" max="452" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="453" max="453" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="454" max="454" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="455" max="455" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="456" max="456" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="457" max="457" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="458" max="458" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="459" max="459" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="460" max="460" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="461" max="461" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="462" max="462" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="463" max="463" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="464" max="464" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="465" max="465" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="466" max="466" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="467" max="467" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="468" max="468" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="469" max="469" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="470" max="470" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="471" max="471" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="472" max="472" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="473" max="473" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="474" max="474" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="475" max="475" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="476" max="476" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="477" max="477" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="478" max="478" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="479" max="479" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="480" max="480" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="481" max="481" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="482" max="482" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="483" max="483" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="484" max="484" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="485" max="485" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="486" max="486" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="487" max="487" bestFit="true" customWidth="true" width="9.08203125"/>
+    <col min="488" max="488" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="489" max="489" bestFit="true" customWidth="true" width="4.73046875"/>
+    <col min="490" max="490" bestFit="true" customWidth="true" width="4.90234375"/>
+    <col min="491" max="491" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="492" max="492" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="493" max="493" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="494" max="494" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="495" max="495" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="496" max="496" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="497" max="497" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="498" max="498" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="499" max="499" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="500" max="500" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="501" max="501" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="502" max="502" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="503" max="503" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="504" max="504" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="505" max="505" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="506" max="506" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="507" max="507" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="508" max="508" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="509" max="509" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="510" max="510" bestFit="true" customWidth="true" width="7.98828125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,6 +1677,1326 @@
       <c r="BR1" t="s" s="70">
         <v>4</v>
       </c>
+      <c r="BS1" t="s" s="71">
+        <v>0</v>
+      </c>
+      <c r="BT1" t="s" s="72">
+        <v>1</v>
+      </c>
+      <c r="BU1" t="s" s="73">
+        <v>2</v>
+      </c>
+      <c r="BV1" t="s" s="74">
+        <v>3</v>
+      </c>
+      <c r="BW1" t="s" s="75">
+        <v>4</v>
+      </c>
+      <c r="BX1" t="s" s="76">
+        <v>0</v>
+      </c>
+      <c r="BY1" t="s" s="77">
+        <v>1</v>
+      </c>
+      <c r="BZ1" t="s" s="78">
+        <v>2</v>
+      </c>
+      <c r="CA1" t="s" s="79">
+        <v>3</v>
+      </c>
+      <c r="CB1" t="s" s="80">
+        <v>4</v>
+      </c>
+      <c r="CC1" t="s" s="81">
+        <v>0</v>
+      </c>
+      <c r="CD1" t="s" s="82">
+        <v>1</v>
+      </c>
+      <c r="CE1" t="s" s="83">
+        <v>2</v>
+      </c>
+      <c r="CF1" t="s" s="84">
+        <v>3</v>
+      </c>
+      <c r="CG1" t="s" s="85">
+        <v>4</v>
+      </c>
+      <c r="CH1" t="s" s="86">
+        <v>0</v>
+      </c>
+      <c r="CI1" t="s" s="87">
+        <v>1</v>
+      </c>
+      <c r="CJ1" t="s" s="88">
+        <v>2</v>
+      </c>
+      <c r="CK1" t="s" s="89">
+        <v>3</v>
+      </c>
+      <c r="CL1" t="s" s="90">
+        <v>4</v>
+      </c>
+      <c r="CM1" t="s" s="91">
+        <v>0</v>
+      </c>
+      <c r="CN1" t="s" s="92">
+        <v>1</v>
+      </c>
+      <c r="CO1" t="s" s="93">
+        <v>2</v>
+      </c>
+      <c r="CP1" t="s" s="94">
+        <v>3</v>
+      </c>
+      <c r="CQ1" t="s" s="95">
+        <v>4</v>
+      </c>
+      <c r="CR1" t="s" s="96">
+        <v>0</v>
+      </c>
+      <c r="CS1" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="CT1" t="s" s="98">
+        <v>2</v>
+      </c>
+      <c r="CU1" t="s" s="99">
+        <v>3</v>
+      </c>
+      <c r="CV1" t="s" s="100">
+        <v>4</v>
+      </c>
+      <c r="CW1" t="s" s="101">
+        <v>0</v>
+      </c>
+      <c r="CX1" t="s" s="102">
+        <v>1</v>
+      </c>
+      <c r="CY1" t="s" s="103">
+        <v>2</v>
+      </c>
+      <c r="CZ1" t="s" s="104">
+        <v>3</v>
+      </c>
+      <c r="DA1" t="s" s="105">
+        <v>4</v>
+      </c>
+      <c r="DB1" t="s" s="106">
+        <v>0</v>
+      </c>
+      <c r="DC1" t="s" s="107">
+        <v>1</v>
+      </c>
+      <c r="DD1" t="s" s="108">
+        <v>2</v>
+      </c>
+      <c r="DE1" t="s" s="109">
+        <v>3</v>
+      </c>
+      <c r="DF1" t="s" s="110">
+        <v>4</v>
+      </c>
+      <c r="DG1" t="s" s="111">
+        <v>0</v>
+      </c>
+      <c r="DH1" t="s" s="112">
+        <v>1</v>
+      </c>
+      <c r="DI1" t="s" s="113">
+        <v>2</v>
+      </c>
+      <c r="DJ1" t="s" s="114">
+        <v>3</v>
+      </c>
+      <c r="DK1" t="s" s="115">
+        <v>4</v>
+      </c>
+      <c r="DL1" t="s" s="116">
+        <v>0</v>
+      </c>
+      <c r="DM1" t="s" s="117">
+        <v>1</v>
+      </c>
+      <c r="DN1" t="s" s="118">
+        <v>2</v>
+      </c>
+      <c r="DO1" t="s" s="119">
+        <v>3</v>
+      </c>
+      <c r="DP1" t="s" s="120">
+        <v>4</v>
+      </c>
+      <c r="DQ1" t="s" s="121">
+        <v>0</v>
+      </c>
+      <c r="DR1" t="s" s="122">
+        <v>1</v>
+      </c>
+      <c r="DS1" t="s" s="123">
+        <v>2</v>
+      </c>
+      <c r="DT1" t="s" s="124">
+        <v>3</v>
+      </c>
+      <c r="DU1" t="s" s="125">
+        <v>4</v>
+      </c>
+      <c r="DV1" t="s" s="126">
+        <v>0</v>
+      </c>
+      <c r="DW1" t="s" s="127">
+        <v>1</v>
+      </c>
+      <c r="DX1" t="s" s="128">
+        <v>2</v>
+      </c>
+      <c r="DY1" t="s" s="129">
+        <v>3</v>
+      </c>
+      <c r="DZ1" t="s" s="130">
+        <v>4</v>
+      </c>
+      <c r="EA1" t="s" s="131">
+        <v>0</v>
+      </c>
+      <c r="EB1" t="s" s="132">
+        <v>1</v>
+      </c>
+      <c r="EC1" t="s" s="133">
+        <v>2</v>
+      </c>
+      <c r="ED1" t="s" s="134">
+        <v>3</v>
+      </c>
+      <c r="EE1" t="s" s="135">
+        <v>4</v>
+      </c>
+      <c r="EF1" t="s" s="136">
+        <v>0</v>
+      </c>
+      <c r="EG1" t="s" s="137">
+        <v>1</v>
+      </c>
+      <c r="EH1" t="s" s="138">
+        <v>2</v>
+      </c>
+      <c r="EI1" t="s" s="139">
+        <v>3</v>
+      </c>
+      <c r="EJ1" t="s" s="140">
+        <v>4</v>
+      </c>
+      <c r="EK1" t="s" s="141">
+        <v>0</v>
+      </c>
+      <c r="EL1" t="s" s="142">
+        <v>1</v>
+      </c>
+      <c r="EM1" t="s" s="143">
+        <v>2</v>
+      </c>
+      <c r="EN1" t="s" s="144">
+        <v>3</v>
+      </c>
+      <c r="EO1" t="s" s="145">
+        <v>4</v>
+      </c>
+      <c r="EP1" t="s" s="146">
+        <v>0</v>
+      </c>
+      <c r="EQ1" t="s" s="147">
+        <v>1</v>
+      </c>
+      <c r="ER1" t="s" s="148">
+        <v>2</v>
+      </c>
+      <c r="ES1" t="s" s="149">
+        <v>3</v>
+      </c>
+      <c r="ET1" t="s" s="150">
+        <v>4</v>
+      </c>
+      <c r="EU1" t="s" s="151">
+        <v>0</v>
+      </c>
+      <c r="EV1" t="s" s="152">
+        <v>1</v>
+      </c>
+      <c r="EW1" t="s" s="153">
+        <v>2</v>
+      </c>
+      <c r="EX1" t="s" s="154">
+        <v>3</v>
+      </c>
+      <c r="EY1" t="s" s="155">
+        <v>4</v>
+      </c>
+      <c r="EZ1" t="s" s="156">
+        <v>0</v>
+      </c>
+      <c r="FA1" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="FB1" t="s" s="158">
+        <v>2</v>
+      </c>
+      <c r="FC1" t="s" s="159">
+        <v>3</v>
+      </c>
+      <c r="FD1" t="s" s="160">
+        <v>4</v>
+      </c>
+      <c r="FE1" t="s" s="161">
+        <v>0</v>
+      </c>
+      <c r="FF1" t="s" s="162">
+        <v>1</v>
+      </c>
+      <c r="FG1" t="s" s="163">
+        <v>2</v>
+      </c>
+      <c r="FH1" t="s" s="164">
+        <v>3</v>
+      </c>
+      <c r="FI1" t="s" s="165">
+        <v>4</v>
+      </c>
+      <c r="FJ1" t="s" s="166">
+        <v>0</v>
+      </c>
+      <c r="FK1" t="s" s="167">
+        <v>1</v>
+      </c>
+      <c r="FL1" t="s" s="168">
+        <v>2</v>
+      </c>
+      <c r="FM1" t="s" s="169">
+        <v>3</v>
+      </c>
+      <c r="FN1" t="s" s="170">
+        <v>4</v>
+      </c>
+      <c r="FO1" t="s" s="171">
+        <v>0</v>
+      </c>
+      <c r="FP1" t="s" s="172">
+        <v>1</v>
+      </c>
+      <c r="FQ1" t="s" s="173">
+        <v>2</v>
+      </c>
+      <c r="FR1" t="s" s="174">
+        <v>3</v>
+      </c>
+      <c r="FS1" t="s" s="175">
+        <v>4</v>
+      </c>
+      <c r="FT1" t="s" s="176">
+        <v>0</v>
+      </c>
+      <c r="FU1" t="s" s="177">
+        <v>1</v>
+      </c>
+      <c r="FV1" t="s" s="178">
+        <v>2</v>
+      </c>
+      <c r="FW1" t="s" s="179">
+        <v>3</v>
+      </c>
+      <c r="FX1" t="s" s="180">
+        <v>4</v>
+      </c>
+      <c r="FY1" t="s" s="181">
+        <v>0</v>
+      </c>
+      <c r="FZ1" t="s" s="182">
+        <v>1</v>
+      </c>
+      <c r="GA1" t="s" s="183">
+        <v>2</v>
+      </c>
+      <c r="GB1" t="s" s="184">
+        <v>3</v>
+      </c>
+      <c r="GC1" t="s" s="185">
+        <v>4</v>
+      </c>
+      <c r="GD1" t="s" s="186">
+        <v>0</v>
+      </c>
+      <c r="GE1" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="GF1" t="s" s="188">
+        <v>2</v>
+      </c>
+      <c r="GG1" t="s" s="189">
+        <v>3</v>
+      </c>
+      <c r="GH1" t="s" s="190">
+        <v>4</v>
+      </c>
+      <c r="GI1" t="s" s="191">
+        <v>0</v>
+      </c>
+      <c r="GJ1" t="s" s="192">
+        <v>1</v>
+      </c>
+      <c r="GK1" t="s" s="193">
+        <v>2</v>
+      </c>
+      <c r="GL1" t="s" s="194">
+        <v>3</v>
+      </c>
+      <c r="GM1" t="s" s="195">
+        <v>4</v>
+      </c>
+      <c r="GN1" t="s" s="196">
+        <v>0</v>
+      </c>
+      <c r="GO1" t="s" s="197">
+        <v>1</v>
+      </c>
+      <c r="GP1" t="s" s="198">
+        <v>2</v>
+      </c>
+      <c r="GQ1" t="s" s="199">
+        <v>3</v>
+      </c>
+      <c r="GR1" t="s" s="200">
+        <v>4</v>
+      </c>
+      <c r="GS1" t="s" s="201">
+        <v>0</v>
+      </c>
+      <c r="GT1" t="s" s="202">
+        <v>1</v>
+      </c>
+      <c r="GU1" t="s" s="203">
+        <v>2</v>
+      </c>
+      <c r="GV1" t="s" s="204">
+        <v>3</v>
+      </c>
+      <c r="GW1" t="s" s="205">
+        <v>4</v>
+      </c>
+      <c r="GX1" t="s" s="206">
+        <v>0</v>
+      </c>
+      <c r="GY1" t="s" s="207">
+        <v>1</v>
+      </c>
+      <c r="GZ1" t="s" s="208">
+        <v>2</v>
+      </c>
+      <c r="HA1" t="s" s="209">
+        <v>3</v>
+      </c>
+      <c r="HB1" t="s" s="210">
+        <v>4</v>
+      </c>
+      <c r="HC1" t="s" s="211">
+        <v>0</v>
+      </c>
+      <c r="HD1" t="s" s="212">
+        <v>1</v>
+      </c>
+      <c r="HE1" t="s" s="213">
+        <v>2</v>
+      </c>
+      <c r="HF1" t="s" s="214">
+        <v>3</v>
+      </c>
+      <c r="HG1" t="s" s="215">
+        <v>4</v>
+      </c>
+      <c r="HH1" t="s" s="216">
+        <v>0</v>
+      </c>
+      <c r="HI1" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="HJ1" t="s" s="218">
+        <v>2</v>
+      </c>
+      <c r="HK1" t="s" s="219">
+        <v>3</v>
+      </c>
+      <c r="HL1" t="s" s="220">
+        <v>4</v>
+      </c>
+      <c r="HM1" t="s" s="221">
+        <v>0</v>
+      </c>
+      <c r="HN1" t="s" s="222">
+        <v>1</v>
+      </c>
+      <c r="HO1" t="s" s="223">
+        <v>2</v>
+      </c>
+      <c r="HP1" t="s" s="224">
+        <v>3</v>
+      </c>
+      <c r="HQ1" t="s" s="225">
+        <v>4</v>
+      </c>
+      <c r="HR1" t="s" s="226">
+        <v>0</v>
+      </c>
+      <c r="HS1" t="s" s="227">
+        <v>1</v>
+      </c>
+      <c r="HT1" t="s" s="228">
+        <v>2</v>
+      </c>
+      <c r="HU1" t="s" s="229">
+        <v>3</v>
+      </c>
+      <c r="HV1" t="s" s="230">
+        <v>4</v>
+      </c>
+      <c r="HW1" t="s" s="231">
+        <v>0</v>
+      </c>
+      <c r="HX1" t="s" s="232">
+        <v>1</v>
+      </c>
+      <c r="HY1" t="s" s="233">
+        <v>2</v>
+      </c>
+      <c r="HZ1" t="s" s="234">
+        <v>3</v>
+      </c>
+      <c r="IA1" t="s" s="235">
+        <v>4</v>
+      </c>
+      <c r="IB1" t="s" s="236">
+        <v>0</v>
+      </c>
+      <c r="IC1" t="s" s="237">
+        <v>1</v>
+      </c>
+      <c r="ID1" t="s" s="238">
+        <v>2</v>
+      </c>
+      <c r="IE1" t="s" s="239">
+        <v>3</v>
+      </c>
+      <c r="IF1" t="s" s="240">
+        <v>4</v>
+      </c>
+      <c r="IG1" t="s" s="241">
+        <v>0</v>
+      </c>
+      <c r="IH1" t="s" s="242">
+        <v>1</v>
+      </c>
+      <c r="II1" t="s" s="243">
+        <v>2</v>
+      </c>
+      <c r="IJ1" t="s" s="244">
+        <v>3</v>
+      </c>
+      <c r="IK1" t="s" s="245">
+        <v>4</v>
+      </c>
+      <c r="IL1" t="s" s="246">
+        <v>0</v>
+      </c>
+      <c r="IM1" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="IN1" t="s" s="248">
+        <v>2</v>
+      </c>
+      <c r="IO1" t="s" s="249">
+        <v>3</v>
+      </c>
+      <c r="IP1" t="s" s="250">
+        <v>4</v>
+      </c>
+      <c r="IQ1" t="s" s="251">
+        <v>0</v>
+      </c>
+      <c r="IR1" t="s" s="252">
+        <v>1</v>
+      </c>
+      <c r="IS1" t="s" s="253">
+        <v>2</v>
+      </c>
+      <c r="IT1" t="s" s="254">
+        <v>3</v>
+      </c>
+      <c r="IU1" t="s" s="255">
+        <v>4</v>
+      </c>
+      <c r="IV1" t="s" s="256">
+        <v>0</v>
+      </c>
+      <c r="IW1" t="s" s="257">
+        <v>1</v>
+      </c>
+      <c r="IX1" t="s" s="258">
+        <v>2</v>
+      </c>
+      <c r="IY1" t="s" s="259">
+        <v>3</v>
+      </c>
+      <c r="IZ1" t="s" s="260">
+        <v>4</v>
+      </c>
+      <c r="JA1" t="s" s="261">
+        <v>0</v>
+      </c>
+      <c r="JB1" t="s" s="262">
+        <v>1</v>
+      </c>
+      <c r="JC1" t="s" s="263">
+        <v>2</v>
+      </c>
+      <c r="JD1" t="s" s="264">
+        <v>3</v>
+      </c>
+      <c r="JE1" t="s" s="265">
+        <v>4</v>
+      </c>
+      <c r="JF1" t="s" s="266">
+        <v>0</v>
+      </c>
+      <c r="JG1" t="s" s="267">
+        <v>1</v>
+      </c>
+      <c r="JH1" t="s" s="268">
+        <v>2</v>
+      </c>
+      <c r="JI1" t="s" s="269">
+        <v>3</v>
+      </c>
+      <c r="JJ1" t="s" s="270">
+        <v>4</v>
+      </c>
+      <c r="JK1" t="s" s="271">
+        <v>0</v>
+      </c>
+      <c r="JL1" t="s" s="272">
+        <v>1</v>
+      </c>
+      <c r="JM1" t="s" s="273">
+        <v>2</v>
+      </c>
+      <c r="JN1" t="s" s="274">
+        <v>3</v>
+      </c>
+      <c r="JO1" t="s" s="275">
+        <v>4</v>
+      </c>
+      <c r="JP1" t="s" s="276">
+        <v>0</v>
+      </c>
+      <c r="JQ1" t="s" s="277">
+        <v>1</v>
+      </c>
+      <c r="JR1" t="s" s="278">
+        <v>2</v>
+      </c>
+      <c r="JS1" t="s" s="279">
+        <v>3</v>
+      </c>
+      <c r="JT1" t="s" s="280">
+        <v>4</v>
+      </c>
+      <c r="JU1" t="s" s="281">
+        <v>0</v>
+      </c>
+      <c r="JV1" t="s" s="282">
+        <v>1</v>
+      </c>
+      <c r="JW1" t="s" s="283">
+        <v>2</v>
+      </c>
+      <c r="JX1" t="s" s="284">
+        <v>3</v>
+      </c>
+      <c r="JY1" t="s" s="285">
+        <v>4</v>
+      </c>
+      <c r="JZ1" t="s" s="286">
+        <v>0</v>
+      </c>
+      <c r="KA1" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="KB1" t="s" s="288">
+        <v>2</v>
+      </c>
+      <c r="KC1" t="s" s="289">
+        <v>3</v>
+      </c>
+      <c r="KD1" t="s" s="290">
+        <v>4</v>
+      </c>
+      <c r="KE1" t="s" s="291">
+        <v>0</v>
+      </c>
+      <c r="KF1" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="KG1" t="s" s="293">
+        <v>2</v>
+      </c>
+      <c r="KH1" t="s" s="294">
+        <v>3</v>
+      </c>
+      <c r="KI1" t="s" s="295">
+        <v>4</v>
+      </c>
+      <c r="KJ1" t="s" s="296">
+        <v>0</v>
+      </c>
+      <c r="KK1" t="s" s="297">
+        <v>1</v>
+      </c>
+      <c r="KL1" t="s" s="298">
+        <v>2</v>
+      </c>
+      <c r="KM1" t="s" s="299">
+        <v>3</v>
+      </c>
+      <c r="KN1" t="s" s="300">
+        <v>4</v>
+      </c>
+      <c r="KO1" t="s" s="301">
+        <v>0</v>
+      </c>
+      <c r="KP1" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="KQ1" t="s" s="303">
+        <v>2</v>
+      </c>
+      <c r="KR1" t="s" s="304">
+        <v>3</v>
+      </c>
+      <c r="KS1" t="s" s="305">
+        <v>4</v>
+      </c>
+      <c r="KT1" t="s" s="306">
+        <v>0</v>
+      </c>
+      <c r="KU1" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="KV1" t="s" s="308">
+        <v>2</v>
+      </c>
+      <c r="KW1" t="s" s="309">
+        <v>3</v>
+      </c>
+      <c r="KX1" t="s" s="310">
+        <v>4</v>
+      </c>
+      <c r="KY1" t="s" s="311">
+        <v>0</v>
+      </c>
+      <c r="KZ1" t="s" s="312">
+        <v>1</v>
+      </c>
+      <c r="LA1" t="s" s="313">
+        <v>2</v>
+      </c>
+      <c r="LB1" t="s" s="314">
+        <v>3</v>
+      </c>
+      <c r="LC1" t="s" s="315">
+        <v>4</v>
+      </c>
+      <c r="LD1" t="s" s="316">
+        <v>0</v>
+      </c>
+      <c r="LE1" t="s" s="317">
+        <v>1</v>
+      </c>
+      <c r="LF1" t="s" s="318">
+        <v>2</v>
+      </c>
+      <c r="LG1" t="s" s="319">
+        <v>3</v>
+      </c>
+      <c r="LH1" t="s" s="320">
+        <v>4</v>
+      </c>
+      <c r="LI1" t="s" s="321">
+        <v>0</v>
+      </c>
+      <c r="LJ1" t="s" s="322">
+        <v>1</v>
+      </c>
+      <c r="LK1" t="s" s="323">
+        <v>2</v>
+      </c>
+      <c r="LL1" t="s" s="324">
+        <v>3</v>
+      </c>
+      <c r="LM1" t="s" s="325">
+        <v>4</v>
+      </c>
+      <c r="LN1" t="s" s="326">
+        <v>0</v>
+      </c>
+      <c r="LO1" t="s" s="327">
+        <v>1</v>
+      </c>
+      <c r="LP1" t="s" s="328">
+        <v>2</v>
+      </c>
+      <c r="LQ1" t="s" s="329">
+        <v>3</v>
+      </c>
+      <c r="LR1" t="s" s="330">
+        <v>4</v>
+      </c>
+      <c r="LS1" t="s" s="331">
+        <v>0</v>
+      </c>
+      <c r="LT1" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="LU1" t="s" s="333">
+        <v>2</v>
+      </c>
+      <c r="LV1" t="s" s="334">
+        <v>3</v>
+      </c>
+      <c r="LW1" t="s" s="335">
+        <v>4</v>
+      </c>
+      <c r="LX1" t="s" s="336">
+        <v>0</v>
+      </c>
+      <c r="LY1" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="LZ1" t="s" s="338">
+        <v>2</v>
+      </c>
+      <c r="MA1" t="s" s="339">
+        <v>3</v>
+      </c>
+      <c r="MB1" t="s" s="340">
+        <v>4</v>
+      </c>
+      <c r="MC1" t="s" s="341">
+        <v>0</v>
+      </c>
+      <c r="MD1" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="ME1" t="s" s="343">
+        <v>2</v>
+      </c>
+      <c r="MF1" t="s" s="344">
+        <v>3</v>
+      </c>
+      <c r="MG1" t="s" s="345">
+        <v>4</v>
+      </c>
+      <c r="MH1" t="s" s="346">
+        <v>0</v>
+      </c>
+      <c r="MI1" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="MJ1" t="s" s="348">
+        <v>2</v>
+      </c>
+      <c r="MK1" t="s" s="349">
+        <v>3</v>
+      </c>
+      <c r="ML1" t="s" s="350">
+        <v>4</v>
+      </c>
+      <c r="MM1" t="s" s="351">
+        <v>0</v>
+      </c>
+      <c r="MN1" t="s" s="352">
+        <v>1</v>
+      </c>
+      <c r="MO1" t="s" s="353">
+        <v>2</v>
+      </c>
+      <c r="MP1" t="s" s="354">
+        <v>3</v>
+      </c>
+      <c r="MQ1" t="s" s="355">
+        <v>4</v>
+      </c>
+      <c r="MR1" t="s" s="356">
+        <v>0</v>
+      </c>
+      <c r="MS1" t="s" s="357">
+        <v>1</v>
+      </c>
+      <c r="MT1" t="s" s="358">
+        <v>2</v>
+      </c>
+      <c r="MU1" t="s" s="359">
+        <v>3</v>
+      </c>
+      <c r="MV1" t="s" s="360">
+        <v>4</v>
+      </c>
+      <c r="MW1" t="s" s="361">
+        <v>0</v>
+      </c>
+      <c r="MX1" t="s" s="362">
+        <v>1</v>
+      </c>
+      <c r="MY1" t="s" s="363">
+        <v>2</v>
+      </c>
+      <c r="MZ1" t="s" s="364">
+        <v>3</v>
+      </c>
+      <c r="NA1" t="s" s="365">
+        <v>4</v>
+      </c>
+      <c r="NB1" t="s" s="366">
+        <v>0</v>
+      </c>
+      <c r="NC1" t="s" s="367">
+        <v>1</v>
+      </c>
+      <c r="ND1" t="s" s="368">
+        <v>2</v>
+      </c>
+      <c r="NE1" t="s" s="369">
+        <v>3</v>
+      </c>
+      <c r="NF1" t="s" s="370">
+        <v>4</v>
+      </c>
+      <c r="NG1" t="s" s="371">
+        <v>0</v>
+      </c>
+      <c r="NH1" t="s" s="372">
+        <v>1</v>
+      </c>
+      <c r="NI1" t="s" s="373">
+        <v>2</v>
+      </c>
+      <c r="NJ1" t="s" s="374">
+        <v>3</v>
+      </c>
+      <c r="NK1" t="s" s="375">
+        <v>4</v>
+      </c>
+      <c r="NL1" t="s" s="376">
+        <v>0</v>
+      </c>
+      <c r="NM1" t="s" s="377">
+        <v>1</v>
+      </c>
+      <c r="NN1" t="s" s="378">
+        <v>2</v>
+      </c>
+      <c r="NO1" t="s" s="379">
+        <v>3</v>
+      </c>
+      <c r="NP1" t="s" s="380">
+        <v>4</v>
+      </c>
+      <c r="NQ1" t="s" s="381">
+        <v>0</v>
+      </c>
+      <c r="NR1" t="s" s="382">
+        <v>1</v>
+      </c>
+      <c r="NS1" t="s" s="383">
+        <v>2</v>
+      </c>
+      <c r="NT1" t="s" s="384">
+        <v>3</v>
+      </c>
+      <c r="NU1" t="s" s="385">
+        <v>4</v>
+      </c>
+      <c r="NV1" t="s" s="386">
+        <v>0</v>
+      </c>
+      <c r="NW1" t="s" s="387">
+        <v>1</v>
+      </c>
+      <c r="NX1" t="s" s="388">
+        <v>2</v>
+      </c>
+      <c r="NY1" t="s" s="389">
+        <v>3</v>
+      </c>
+      <c r="NZ1" t="s" s="390">
+        <v>4</v>
+      </c>
+      <c r="OA1" t="s" s="391">
+        <v>0</v>
+      </c>
+      <c r="OB1" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="OC1" t="s" s="393">
+        <v>2</v>
+      </c>
+      <c r="OD1" t="s" s="394">
+        <v>3</v>
+      </c>
+      <c r="OE1" t="s" s="395">
+        <v>4</v>
+      </c>
+      <c r="OF1" t="s" s="396">
+        <v>0</v>
+      </c>
+      <c r="OG1" t="s" s="397">
+        <v>1</v>
+      </c>
+      <c r="OH1" t="s" s="398">
+        <v>2</v>
+      </c>
+      <c r="OI1" t="s" s="399">
+        <v>3</v>
+      </c>
+      <c r="OJ1" t="s" s="400">
+        <v>4</v>
+      </c>
+      <c r="OK1" t="s" s="401">
+        <v>0</v>
+      </c>
+      <c r="OL1" t="s" s="402">
+        <v>1</v>
+      </c>
+      <c r="OM1" t="s" s="403">
+        <v>2</v>
+      </c>
+      <c r="ON1" t="s" s="404">
+        <v>3</v>
+      </c>
+      <c r="OO1" t="s" s="405">
+        <v>4</v>
+      </c>
+      <c r="OP1" t="s" s="406">
+        <v>0</v>
+      </c>
+      <c r="OQ1" t="s" s="407">
+        <v>1</v>
+      </c>
+      <c r="OR1" t="s" s="408">
+        <v>2</v>
+      </c>
+      <c r="OS1" t="s" s="409">
+        <v>3</v>
+      </c>
+      <c r="OT1" t="s" s="410">
+        <v>4</v>
+      </c>
+      <c r="OU1" t="s" s="411">
+        <v>0</v>
+      </c>
+      <c r="OV1" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="OW1" t="s" s="413">
+        <v>2</v>
+      </c>
+      <c r="OX1" t="s" s="414">
+        <v>3</v>
+      </c>
+      <c r="OY1" t="s" s="415">
+        <v>4</v>
+      </c>
+      <c r="OZ1" t="s" s="416">
+        <v>0</v>
+      </c>
+      <c r="PA1" t="s" s="417">
+        <v>1</v>
+      </c>
+      <c r="PB1" t="s" s="418">
+        <v>2</v>
+      </c>
+      <c r="PC1" t="s" s="419">
+        <v>3</v>
+      </c>
+      <c r="PD1" t="s" s="420">
+        <v>4</v>
+      </c>
+      <c r="PE1" t="s" s="421">
+        <v>0</v>
+      </c>
+      <c r="PF1" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="PG1" t="s" s="423">
+        <v>2</v>
+      </c>
+      <c r="PH1" t="s" s="424">
+        <v>3</v>
+      </c>
+      <c r="PI1" t="s" s="425">
+        <v>4</v>
+      </c>
+      <c r="PJ1" t="s" s="426">
+        <v>0</v>
+      </c>
+      <c r="PK1" t="s" s="427">
+        <v>1</v>
+      </c>
+      <c r="PL1" t="s" s="428">
+        <v>2</v>
+      </c>
+      <c r="PM1" t="s" s="429">
+        <v>3</v>
+      </c>
+      <c r="PN1" t="s" s="430">
+        <v>4</v>
+      </c>
+      <c r="PO1" t="s" s="431">
+        <v>0</v>
+      </c>
+      <c r="PP1" t="s" s="432">
+        <v>1</v>
+      </c>
+      <c r="PQ1" t="s" s="433">
+        <v>2</v>
+      </c>
+      <c r="PR1" t="s" s="434">
+        <v>3</v>
+      </c>
+      <c r="PS1" t="s" s="435">
+        <v>4</v>
+      </c>
+      <c r="PT1" t="s" s="436">
+        <v>0</v>
+      </c>
+      <c r="PU1" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="PV1" t="s" s="438">
+        <v>2</v>
+      </c>
+      <c r="PW1" t="s" s="439">
+        <v>3</v>
+      </c>
+      <c r="PX1" t="s" s="440">
+        <v>4</v>
+      </c>
+      <c r="PY1" t="s" s="441">
+        <v>0</v>
+      </c>
+      <c r="PZ1" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="QA1" t="s" s="443">
+        <v>2</v>
+      </c>
+      <c r="QB1" t="s" s="444">
+        <v>3</v>
+      </c>
+      <c r="QC1" t="s" s="445">
+        <v>4</v>
+      </c>
+      <c r="QD1" t="s" s="446">
+        <v>0</v>
+      </c>
+      <c r="QE1" t="s" s="447">
+        <v>1</v>
+      </c>
+      <c r="QF1" t="s" s="448">
+        <v>2</v>
+      </c>
+      <c r="QG1" t="s" s="449">
+        <v>3</v>
+      </c>
+      <c r="QH1" t="s" s="450">
+        <v>4</v>
+      </c>
+      <c r="QI1" t="s" s="451">
+        <v>0</v>
+      </c>
+      <c r="QJ1" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="QK1" t="s" s="453">
+        <v>2</v>
+      </c>
+      <c r="QL1" t="s" s="454">
+        <v>3</v>
+      </c>
+      <c r="QM1" t="s" s="455">
+        <v>4</v>
+      </c>
+      <c r="QN1" t="s" s="456">
+        <v>0</v>
+      </c>
+      <c r="QO1" t="s" s="457">
+        <v>1</v>
+      </c>
+      <c r="QP1" t="s" s="458">
+        <v>2</v>
+      </c>
+      <c r="QQ1" t="s" s="459">
+        <v>3</v>
+      </c>
+      <c r="QR1" t="s" s="460">
+        <v>4</v>
+      </c>
+      <c r="QS1" t="s" s="461">
+        <v>0</v>
+      </c>
+      <c r="QT1" t="s" s="462">
+        <v>1</v>
+      </c>
+      <c r="QU1" t="s" s="463">
+        <v>2</v>
+      </c>
+      <c r="QV1" t="s" s="464">
+        <v>3</v>
+      </c>
+      <c r="QW1" t="s" s="465">
+        <v>4</v>
+      </c>
+      <c r="QX1" t="s" s="466">
+        <v>0</v>
+      </c>
+      <c r="QY1" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="QZ1" t="s" s="468">
+        <v>2</v>
+      </c>
+      <c r="RA1" t="s" s="469">
+        <v>3</v>
+      </c>
+      <c r="RB1" t="s" s="470">
+        <v>4</v>
+      </c>
+      <c r="RC1" t="s" s="471">
+        <v>0</v>
+      </c>
+      <c r="RD1" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="RE1" t="s" s="473">
+        <v>2</v>
+      </c>
+      <c r="RF1" t="s" s="474">
+        <v>3</v>
+      </c>
+      <c r="RG1" t="s" s="475">
+        <v>4</v>
+      </c>
+      <c r="RH1" t="s" s="476">
+        <v>0</v>
+      </c>
+      <c r="RI1" t="s" s="477">
+        <v>1</v>
+      </c>
+      <c r="RJ1" t="s" s="478">
+        <v>2</v>
+      </c>
+      <c r="RK1" t="s" s="479">
+        <v>3</v>
+      </c>
+      <c r="RL1" t="s" s="480">
+        <v>4</v>
+      </c>
+      <c r="RM1" t="s" s="481">
+        <v>0</v>
+      </c>
+      <c r="RN1" t="s" s="482">
+        <v>1</v>
+      </c>
+      <c r="RO1" t="s" s="483">
+        <v>2</v>
+      </c>
+      <c r="RP1" t="s" s="484">
+        <v>3</v>
+      </c>
+      <c r="RQ1" t="s" s="485">
+        <v>4</v>
+      </c>
+      <c r="RR1" t="s" s="486">
+        <v>0</v>
+      </c>
+      <c r="RS1" t="s" s="487">
+        <v>1</v>
+      </c>
+      <c r="RT1" t="s" s="488">
+        <v>2</v>
+      </c>
+      <c r="RU1" t="s" s="489">
+        <v>3</v>
+      </c>
+      <c r="RV1" t="s" s="490">
+        <v>4</v>
+      </c>
+      <c r="RW1" t="s" s="491">
+        <v>0</v>
+      </c>
+      <c r="RX1" t="s" s="492">
+        <v>1</v>
+      </c>
+      <c r="RY1" t="s" s="493">
+        <v>2</v>
+      </c>
+      <c r="RZ1" t="s" s="494">
+        <v>3</v>
+      </c>
+      <c r="SA1" t="s" s="495">
+        <v>4</v>
+      </c>
+      <c r="SB1" t="s" s="496">
+        <v>0</v>
+      </c>
+      <c r="SC1" t="s" s="497">
+        <v>1</v>
+      </c>
+      <c r="SD1" t="s" s="498">
+        <v>2</v>
+      </c>
+      <c r="SE1" t="s" s="499">
+        <v>3</v>
+      </c>
+      <c r="SF1" t="s" s="500">
+        <v>4</v>
+      </c>
+      <c r="SG1" t="s" s="501">
+        <v>0</v>
+      </c>
+      <c r="SH1" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="SI1" t="s" s="503">
+        <v>2</v>
+      </c>
+      <c r="SJ1" t="s" s="504">
+        <v>3</v>
+      </c>
+      <c r="SK1" t="s" s="505">
+        <v>4</v>
+      </c>
+      <c r="SL1" t="s" s="506">
+        <v>0</v>
+      </c>
+      <c r="SM1" t="s" s="507">
+        <v>1</v>
+      </c>
+      <c r="SN1" t="s" s="508">
+        <v>2</v>
+      </c>
+      <c r="SO1" t="s" s="509">
+        <v>3</v>
+      </c>
+      <c r="SP1" t="s" s="510">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -757,6 +3209,1236 @@
       <c r="BR2" t="s" s="0">
         <v>37</v>
       </c>
+      <c r="BS2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BT2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="BU2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="BV2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BW2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="CH2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="CI2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="CJ2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="CK2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CL2" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="CM2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="CN2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="CO2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="CP2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CQ2" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="CR2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="CS2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="CT2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="CU2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="CV2" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="CW2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="CX2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="CY2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="CZ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="DA2" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="DG2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="DH2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="DI2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="DJ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="DK2" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="DL2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="DM2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="DN2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="DO2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="DP2" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="DQ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="DR2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="DS2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="DT2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="DU2" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="DV2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="DW2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="DX2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="DY2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="DZ2" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="EA2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="EB2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="EC2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="ED2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="EE2" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="EF2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="EG2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="EH2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="EI2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="EJ2" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="EK2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="EL2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="EM2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="EN2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="EO2" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="EP2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="EQ2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="ER2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="ES2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="ET2" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="EU2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="EV2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="EW2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="EX2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="EY2" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="EZ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="FA2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="FB2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="FC2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="FD2" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="FE2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="FF2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="FG2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="FH2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="FI2" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="FJ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="FK2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="FL2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="FM2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="FN2" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="FO2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="FP2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="FQ2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="FR2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="FS2" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="FT2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="FU2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="FV2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="FW2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="FX2" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="FY2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="FZ2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="GA2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="GB2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="GC2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="GD2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="GE2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="GF2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="GG2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="GH2" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="GI2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="GJ2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="GK2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="GL2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="GM2" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="GN2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="GO2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="GP2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="GQ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="GR2" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="GS2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="GT2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="GU2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="GV2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="GW2" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="HC2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="HD2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="HE2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="HF2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="HG2" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="HH2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="HI2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="HJ2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="HK2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="HL2" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="HM2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="HN2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="HO2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="HP2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="HQ2" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="HR2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="HS2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="HT2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="HU2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="HV2" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="HW2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="HX2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="HY2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="HZ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="IA2" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="IB2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="IC2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="ID2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="IE2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="IF2" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="IG2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="IH2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="II2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="IJ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="IK2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="IL2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="IM2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="IN2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="IO2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="IP2" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="IQ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="IR2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="IS2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="IT2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="IU2" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="IV2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="IW2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="IX2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="IY2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="IZ2" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="JA2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="JB2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="JC2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="JD2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="JE2" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="JF2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="JG2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="JH2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="JI2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="JJ2" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="JK2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="JL2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="JM2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="JN2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="JO2" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="JP2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="JQ2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="JR2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="JS2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="JT2" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="JU2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="JV2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="JW2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="JX2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="JY2" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="JZ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="KA2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="KB2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="KC2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="KD2" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="KE2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="KF2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="KG2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="KH2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="KI2" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="KJ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="KK2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="KL2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="KM2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="KN2" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="KO2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="KP2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="KQ2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="KR2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="KS2" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="KT2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="KU2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="KV2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="KW2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="KX2" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="KY2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="KZ2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="LA2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="LB2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="LC2" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="LD2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="LE2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="LF2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="LG2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="LH2" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="LI2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="LJ2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="LK2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="LL2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="LM2" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="LN2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="LO2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="LP2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="LQ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="LR2" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="LS2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="LT2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="LU2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="LV2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="LW2" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="LX2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="LY2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="LZ2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="MA2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="MB2" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="MC2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="MD2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="ME2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="MF2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="MG2" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="MH2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="MI2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="MJ2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="MK2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="ML2" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="MR2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="MS2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="MT2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="MU2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="MV2" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="MW2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="MX2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="MY2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="MZ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="NA2" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="NB2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="NC2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="ND2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="NE2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="NF2" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="NG2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="NH2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="NI2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="NJ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="NK2" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="NL2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="NM2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="NN2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="NO2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="NP2" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="NQ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="NR2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="NS2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="NT2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="NU2" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="NV2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="NW2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="NX2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="NY2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="NZ2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="OA2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="OB2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="OC2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="OD2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="OE2" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="OK2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="OL2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="OM2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="ON2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="OO2" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="OP2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="OQ2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="OR2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="OS2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="OT2" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="OU2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="OV2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="OW2" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="OX2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="OY2" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="OZ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="PA2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="PB2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="PC2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="PD2" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="PE2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="PF2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="PG2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="PH2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="PI2" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="PJ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="PK2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="PL2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="PM2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="PN2" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="PO2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="PP2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="PQ2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="PR2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="PS2" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="PT2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="PU2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="PV2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="PW2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="PX2" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="PY2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="PZ2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="QA2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="QB2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="QC2" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="QD2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="QE2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="QF2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="QG2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="QH2" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="QI2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="QJ2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="QK2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="QL2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="QM2" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="QN2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="QO2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="QP2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="QQ2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="QR2" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="QS2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="QT2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="QU2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="QV2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="QW2" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="QX2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="QY2" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="QZ2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="RA2" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="RB2" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="RC2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="RD2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="RE2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="RF2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="RG2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="RH2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="RI2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="RJ2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="RK2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="RL2" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="RM2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="RN2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="RO2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="RP2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="RQ2" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="RR2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="RS2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="RT2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="RU2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="RV2" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="RW2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="RX2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="RY2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="RZ2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SA2" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="SB2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SC2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="SD2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="SE2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SF2" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="SG2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SH2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="SI2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="SJ2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SK2" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="SL2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SM2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="SN2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="SO2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SP2" t="s" s="0">
+        <v>131</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -894,6 +4576,81 @@
       <c r="BR3" t="s" s="0">
         <v>38</v>
       </c>
+      <c r="BS3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BT3" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="BU3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="BV3" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BW3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="RW3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="RX3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="RY3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="RZ3" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SA3" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="SB3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SC3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="SD3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="SE3" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SF3" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="SG3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SH3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="SI3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="SJ3" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SK3" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="SL3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SM3" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="SN3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="SO3" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SP3" t="s" s="0">
+        <v>132</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -1031,6 +4788,36 @@
       <c r="BR4" t="s" s="0">
         <v>39</v>
       </c>
+      <c r="BS4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BT4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="BU4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="BV4" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BW4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="SL4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SM4" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="SN4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="SO4" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SP4" t="s" s="0">
+        <v>133</v>
+      </c>
     </row>
     <row r="5">
       <c r="BN5" t="s" s="0">
@@ -1047,6 +4834,21 @@
       </c>
       <c r="BR5" t="s" s="0">
         <v>39</v>
+      </c>
+      <c r="BS5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="BT5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="BU5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="BV5" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="BW5" t="s" s="0">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/report/testResult.xlsx
+++ b/report/testResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="136">
   <si>
     <t>Execution No.</t>
   </si>
@@ -414,6 +414,12 @@
   </si>
   <si>
     <t>01:40:58</t>
+  </si>
+  <si>
+    <t>02:01:32</t>
+  </si>
+  <si>
+    <t>02:02:38</t>
   </si>
 </sst>
 </file>
@@ -460,8 +466,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="511">
+  <cellXfs count="516">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -978,7 +989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:SP5"/>
+  <dimension ref="A1:SU5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1464,6 +1475,11 @@
     <col min="508" max="508" bestFit="true" customWidth="true" width="5.9140625"/>
     <col min="509" max="509" bestFit="true" customWidth="true" width="10.13671875"/>
     <col min="510" max="510" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="511" max="511" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="512" max="512" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="513" max="513" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="514" max="514" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="515" max="515" bestFit="true" customWidth="true" width="7.98828125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2997,6 +3013,21 @@
       <c r="SP1" t="s" s="510">
         <v>4</v>
       </c>
+      <c r="SQ1" t="s" s="511">
+        <v>0</v>
+      </c>
+      <c r="SR1" t="s" s="512">
+        <v>1</v>
+      </c>
+      <c r="SS1" t="s" s="513">
+        <v>2</v>
+      </c>
+      <c r="ST1" t="s" s="514">
+        <v>3</v>
+      </c>
+      <c r="SU1" t="s" s="515">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -4439,6 +4470,21 @@
       <c r="SP2" t="s" s="0">
         <v>131</v>
       </c>
+      <c r="SQ2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SR2" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="SS2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="ST2" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SU2" t="s" s="0">
+        <v>134</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -4650,6 +4696,21 @@
       </c>
       <c r="SP3" t="s" s="0">
         <v>132</v>
+      </c>
+      <c r="SQ3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="SR3" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="SS3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="ST3" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="SU3" t="s" s="0">
+        <v>135</v>
       </c>
     </row>
     <row r="4">

--- a/report/testResult.xlsx
+++ b/report/testResult.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="29">
   <si>
     <t>Execution No.</t>
   </si>
@@ -41,7 +41,7 @@
     <t>2025-04-07</t>
   </si>
   <si>
-    <t>20:09:45</t>
+    <t>21:48:26</t>
   </si>
   <si>
     <t>UserRegistrationTest</t>
@@ -50,19 +50,55 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>20:10:09</t>
+    <t>21:48:43</t>
   </si>
   <si>
     <t>UserLoginTest</t>
   </si>
   <si>
-    <t>20:10:12</t>
+    <t>21:48:46</t>
   </si>
   <si>
     <t>verifyHostAndAdventure</t>
   </si>
   <si>
-    <t>20:11:19</t>
+    <t>21:49:23</t>
+  </si>
+  <si>
+    <t>21:52:30</t>
+  </si>
+  <si>
+    <t>21:55:04</t>
+  </si>
+  <si>
+    <t>21:55:34</t>
+  </si>
+  <si>
+    <t>21:56:10</t>
+  </si>
+  <si>
+    <t>21:58:55</t>
+  </si>
+  <si>
+    <t>21:59:31</t>
+  </si>
+  <si>
+    <t>22:00:44</t>
+  </si>
+  <si>
+    <t>22:01:44</t>
+  </si>
+  <si>
+    <t>22:07:07</t>
+  </si>
+  <si>
+    <t>22:07:25</t>
+  </si>
+  <si>
+    <t>22:07:27</t>
+  </si>
+  <si>
+    <t>22:08:29</t>
   </si>
 </sst>
 </file>
@@ -109,8 +145,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
@@ -122,7 +183,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:AD5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -133,6 +194,31 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="5.9140625"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.13671875"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="12.30078125"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="7.98828125"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.05078125"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="17.703125"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="5.9140625"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.13671875"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="7.98828125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -151,6 +237,81 @@
       <c r="E1" t="s" s="5">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="6">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s" s="7">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s" s="9">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s" s="10">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s" s="11">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s" s="12">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s" s="13">
+        <v>2</v>
+      </c>
+      <c r="N1" t="s" s="14">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s" s="15">
+        <v>4</v>
+      </c>
+      <c r="P1" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s" s="17">
+        <v>1</v>
+      </c>
+      <c r="R1" t="s" s="18">
+        <v>2</v>
+      </c>
+      <c r="S1" t="s" s="19">
+        <v>3</v>
+      </c>
+      <c r="T1" t="s" s="20">
+        <v>4</v>
+      </c>
+      <c r="U1" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s" s="22">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s" s="23">
+        <v>2</v>
+      </c>
+      <c r="X1" t="s" s="24">
+        <v>3</v>
+      </c>
+      <c r="Y1" t="s" s="25">
+        <v>4</v>
+      </c>
+      <c r="Z1" t="s" s="26">
+        <v>0</v>
+      </c>
+      <c r="AA1" t="s" s="27">
+        <v>1</v>
+      </c>
+      <c r="AB1" t="s" s="28">
+        <v>2</v>
+      </c>
+      <c r="AC1" t="s" s="29">
+        <v>3</v>
+      </c>
+      <c r="AD1" t="s" s="30">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
@@ -168,6 +329,81 @@
       <c r="E2" t="s" s="0">
         <v>9</v>
       </c>
+      <c r="F2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="O2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="R2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="S2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="T2" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="V2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="W2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="X2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="Y2" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Z2" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AA2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="AB2" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="AC2" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="AD2" t="s" s="0">
+        <v>25</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
@@ -185,6 +421,81 @@
       <c r="E3" t="s" s="0">
         <v>12</v>
       </c>
+      <c r="F3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="L3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="O3" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="R3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="S3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="U3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="W3" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="X3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="Y3" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AA3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="AB3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="AC3" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="AD3" t="s" s="0">
+        <v>26</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
@@ -202,6 +513,21 @@
       <c r="E4" t="s" s="0">
         <v>14</v>
       </c>
+      <c r="Z4" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AA4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="AB4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="s" s="0">
+        <v>27</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
@@ -211,13 +537,28 @@
         <v>15</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s" s="0">
         <v>8</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>16</v>
+      </c>
+      <c r="Z5" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="AA5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="AB5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="AC5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
